--- a/CP4_Buck/buck.xlsx
+++ b/CP4_Buck/buck.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lococ\OneDrive - fi.uba.ar\Fiuba\C2\TP\BUCK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lococ\OneDrive - fi.uba.ar\Fiuba\C2\TP\Buck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC157B5A-4CE1-45D6-A1C4-C268007F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF62F6F-0CAB-47F0-A4DC-ABD4DBCD52D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{875FA887-6553-4710-AADB-B3C00F3FFEFB}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD088C5-7D79-47D0-B6A8-F19ADF7AA174}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,159 +533,159 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f>B7/A7</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D7" s="1">
         <f>(1-C7)*B7/(2*$B$1*($B$3-$B$5))</f>
-        <v>1.1780753968253971E-5</v>
+        <v>9.9206349206349189E-6</v>
       </c>
       <c r="E7" s="1">
         <f>2*$B$1*D7/(1-C7)</f>
-        <v>13.571428571428571</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="F7" s="1">
         <f>(1-C7)*(2*B7/$B$3)/(2*$B$1)</f>
-        <v>1.0995370370370372E-5</v>
+        <v>9.2592592592592574E-6</v>
       </c>
       <c r="G7" s="1">
         <f>C7/$B$1</f>
-        <v>6.5972222222222221E-6</v>
+        <v>6.9444444444444448E-6</v>
       </c>
       <c r="H7" s="1">
         <f>$B$2-G7</f>
-        <v>1.7361111111111116E-6</v>
+        <v>1.388888888888889E-6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/A8</f>
-        <v>0.31666666666666665</v>
+        <f t="shared" ref="C8:C11" si="0">B8/A8</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D8" s="1">
-        <f>(1-C8)*B8/(2*$B$1*($B$3-$B$5))</f>
-        <v>3.8640873015873015E-5</v>
+        <f t="shared" ref="D8:D11" si="1">(1-C8)*B8/(2*$B$1*($B$3-$B$5))</f>
+        <v>1.9841269841269845E-5</v>
       </c>
       <c r="E8" s="1">
-        <f>2*$B$1*D8/(1-C8)</f>
-        <v>13.571428571428571</v>
+        <f t="shared" ref="E8:E11" si="2">2*$B$1*D8/(1-C8)</f>
+        <v>14.285714285714286</v>
       </c>
       <c r="F8" s="1">
-        <f>(1-C8)*(2*B8/$B$3)/(2*$B$1)</f>
-        <v>3.6064814814814815E-5</v>
+        <f t="shared" ref="F8:F11" si="3">(1-C8)*(2*B8/$B$3)/(2*$B$1)</f>
+        <v>1.8518518518518522E-5</v>
       </c>
       <c r="G8" s="1">
-        <f>C8/$B$1</f>
-        <v>2.6388888888888888E-6</v>
+        <f t="shared" ref="G8:G11" si="4">C8/$B$1</f>
+        <v>5.555555555555555E-6</v>
       </c>
       <c r="H8" s="1">
-        <f>$B$2-G8</f>
-        <v>5.6944444444444449E-6</v>
+        <f t="shared" ref="H8:H11" si="5">$B$2-G8</f>
+        <v>2.7777777777777788E-6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/A9</f>
-        <v>0.6333333333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="D9" s="1">
-        <f>(1-C9)*B9/(2*$B$1*($B$3-$B$5))</f>
-        <v>2.0734126984126985E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.9761904761904762E-5</v>
       </c>
       <c r="E9" s="1">
-        <f>2*$B$1*D9/(1-C9)</f>
-        <v>13.571428571428571</v>
+        <f t="shared" si="2"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="F9" s="1">
-        <f>(1-C9)*(2*B9/$B$3)/(2*$B$1)</f>
-        <v>1.9351851851851853E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.7777777777777779E-5</v>
       </c>
       <c r="G9" s="1">
-        <f>C9/$B$1</f>
-        <v>5.2777777777777777E-6</v>
+        <f t="shared" si="4"/>
+        <v>4.1666666666666669E-6</v>
       </c>
       <c r="H9" s="1">
-        <f>$B$2-G9</f>
-        <v>3.055555555555556E-6</v>
+        <f t="shared" si="5"/>
+        <v>4.1666666666666669E-6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C11" si="0">B10/A10</f>
-        <v>0.47499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D11" si="1">(1-C10)*B10/(2*$B$1*($B$3-$B$5))</f>
-        <v>2.96875E-5</v>
+        <f t="shared" si="1"/>
+        <v>3.5714285714285717E-5</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E11" si="2">2*$B$1*D10/(1-C10)</f>
-        <v>13.571428571428571</v>
+        <f t="shared" si="2"/>
+        <v>14.285714285714288</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F11" si="3">(1-C10)*(2*B10/$B$3)/(2*$B$1)</f>
-        <v>2.7708333333333334E-5</v>
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G11" si="4">C10/$B$1</f>
-        <v>3.9583333333333333E-6</v>
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:H11" si="5">$B$2-G10</f>
-        <v>4.3750000000000005E-6</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>3.5059523809523809E-5</v>
+        <v>3.9682539682539689E-5</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>13.571428571428571</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>3.2722222222222221E-5</v>
+        <v>3.7037037037037043E-5</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>3.1666666666666667E-6</v>
+        <v>2.7777777777777775E-6</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="5"/>
-        <v>5.1666666666666675E-6</v>
+        <v>5.5555555555555558E-6</v>
       </c>
     </row>
   </sheetData>
